--- a/BackTest/2020-01-24 BackTest SOC.xlsx
+++ b/BackTest/2020-01-24 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1898040.759049896</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2093881.664949896</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2086484.306049896</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2070703.358249896</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2093574.527149896</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2080909.623355441</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1982000.958755441</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2001004.186055441</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1979691.071655441</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1997866.501655441</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1990147.302355441</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1979649.629355441</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1979649.629355441</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1988006.758955441</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1988006.758955441</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1938653.010855441</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1938653.010855441</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1974401.942455441</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1966422.486655441</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1973589.944455441</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1958907.027055441</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1949621.072355441</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1956920.900755441</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1939234.677255441</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1939234.677255441</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1930135.199355441</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1944988.971955441</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1963791.968155441</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1955436.310155441</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1962564.348755441</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1955832.970355441</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1955832.970355441</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1975177.124155441</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1975177.124155441</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1704900.384755441</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1630129.619555441</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1664356.843055441</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1620800.262655441</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1773637.070955441</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1773637.070955441</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1773637.070955441</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1797880.449255441</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1824129.284855441</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1812166.518855441</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1831320.630755441</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1804757.67125544</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1843521.622555441</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1843521.622555441</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1869553.57515544</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1825253.208149896</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1855206.590749895</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1855206.590749895</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1847965.358549895</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1847965.358549895</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1961968.635649896</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1971637.098849896</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1964504.409349896</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1964504.409349896</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1921825.492849895</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1942335.791349896</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2031929.238849896</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2073617.300649896</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2060658.127949896</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2071810.857649896</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2105352.010649896</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2138977.423249896</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2117514.851349896</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2129082.133749896</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2115043.210249896</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2115043.210249896</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2121808.557949896</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2114908.333249895</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-2122439.289149895</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2115518.962749895</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2146815.416649895</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2146815.416649895</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1892489.207449895</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1846139.651849895</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1846139.651849895</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1825273.647049895</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1857035.616149895</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1842795.980549895</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1848334.526749895</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1848334.526749895</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1868922.810749895</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1868922.810749895</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1860205.693249895</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1852509.778549895</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1859234.260349895</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1879740.134249895</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1755864.456249895</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1763757.305449895</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1757297.051549895</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1757297.051549895</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1860128.734749896</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1867230.668449895</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1859729.314749895</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1868335.233449895</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1875682.082249895</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1857718.157449896</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1826936.938749895</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1851632.018449895</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1844943.656849895</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1837761.718749895</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1844036.346849896</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1836792.947549896</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1845499.156249896</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1875186.983291905</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1868665.482391905</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1876192.228991905</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1885743.428491905</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1877820.161191905</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1885381.344591905</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1885381.344591905</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1878991.477891905</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1870050.240591906</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1877521.559291905</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1788756.200891905</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1782939.810491906</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1776207.385991906</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1782221.840191906</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1789267.675491906</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1807174.907291905</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1796954.568891905</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1803523.998391906</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1795349.759191906</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1802355.150391906</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1794754.059191906</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1802096.500891906</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1795131.805591906</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1788659.641891906</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1796854.025591906</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1790212.099491906</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1782695.437591906</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1776473.925991906</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1783073.292191906</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1769994.079591906</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1750520.556991906</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1695704.692791906</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1695704.692791906</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1695704.692791906</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1695704.692791906</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1695704.692791906</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1703836.584391906</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1710290.173891906</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1702797.315391906</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1694981.586891906</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1701972.927291906</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1695690.881291906</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1695690.881291906</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1695690.881291906</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1793553.240491906</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1758245.924291906</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1684064.469291906</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1719695.752991906</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1712869.705791906</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1712869.705791906</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1720071.972591906</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1712977.654091906</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1720167.835591906</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1713546.352691906</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1707198.736991906</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1723670.185791906</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1732946.110391906</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1725774.974091906</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1733736.378391906</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1727232.240691906</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1727232.240691906</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1727232.240691906</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1736352.272091906</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1730290.283891906</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1737482.284991906</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1730724.728691906</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1738169.345991906</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1731705.032191906</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1738736.040991906</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1732371.880591906</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1739931.640191906</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1505204.823191906</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1505204.823191906</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1505204.823191906</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1505204.823191906</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1649818.221291906</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1663181.477691906</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1656149.286891906</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1656149.286891906</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1663199.066691906</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1655330.899691906</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1661897.999991906</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1654050.253691906</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1660742.415491906</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1679501.572191906</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1664884.484491906</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1658222.972291906</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1664980.391191906</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1656853.595591906</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1662714.046091906</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1669805.133191905</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1655825.533591905</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1669366.819691905</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1655676.764691905</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1635035.096591905</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1655166.541591906</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1655166.541591906</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1647694.637591905</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1657040.498691906</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1639648.758491905</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1639648.758491905</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1645598.694391905</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1645598.694391905</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1637592.267491905</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1645320.186491905</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1633319.814691905</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1621074.735891905</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1628095.136391905</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1615996.538991905</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1608777.580491905</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1616877.587791905</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1622487.790791905</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1602619.249091905</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1668079.035391905</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1660834.376391905</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1667457.502691905</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1660434.425991905</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1666400.002891905</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1657841.039691905</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1672016.958691905</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1697510.325791905</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1727448.846891905</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1666847.532491905</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1658152.956291905</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1686197.282391905</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1692924.016391905</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1684829.727091904</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1690995.307791905</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1678897.490191905</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1659496.257291905</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1677922.211691905</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1663639.808691905</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1650138.167691905</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1656275.868991905</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1649075.752791905</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1643363.326591905</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1652383.706791905</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1635030.698991905</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1658003.379091904</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1677909.765591905</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1655697.361891905</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1637336.208791905</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1659897.220091905</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1641284.166891905</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1652792.792191905</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1645413.362091905</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1654378.138091905</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1663059.410091905</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1655941.027491905</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1675935.956191905</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1654978.084091905</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1673469.569691905</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1661105.779991905</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1654008.964091905</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1661892.883191905</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1633547.766891905</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1681575.023191905</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1714481.601191905</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1747127.862791905</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1719350.755791905</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1726229.221891905</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1726229.221891905</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1702155.957891905</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1691099.407391905</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1669631.950991905</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1676115.817991905</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1682452.113291905</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1675938.224391905</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1668368.024091905</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1675096.270691905</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1664825.648991905</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1676994.833491905</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1645094.779491905</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1660214.867291905</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1660214.867291905</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1654426.361091905</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1661394.125491905</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1668846.938091905</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1683333.630191905</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1692056.917991905</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1683161.318891905</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1669670.403291905</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1681409.909491905</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1674775.059191905</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1683298.196391905</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1666337.981891905</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1657430.693591905</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1657430.693591905</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1663851.869191905</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1670202.221591905</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1681158.420691905</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1672456.502091905</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1664284.722491905</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1657569.275991905</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1666230.230691905</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1673223.438391905</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1661416.317891905</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1674398.571491905</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1666546.336591905</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1666546.336591905</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1682170.773391905</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1682170.773391905</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1671316.712691905</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1684335.365191905</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1715283.841091905</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1723746.521191905</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1712211.674291905</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1712211.674291905</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1699083.154691905</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1705510.041191905</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1697520.848591905</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1704334.682691905</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-1704334.682691905</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1698251.886791905</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1698251.886791905</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1689081.492791905</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1695840.467491905</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1704802.209791905</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1692850.364691905</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1692850.364691905</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1700421.555591905</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1711651.838791905</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1682784.467291905</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-1763890.005791905</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1780155.484591905</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1788986.463491905</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-1810679.257791905</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1888154.186991905</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1914762.207591905</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1897589.940091905</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1887809.683191905</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1897547.078191905</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1889791.626291905</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1880769.699191905</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-1889592.993691905</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-1901801.020091905</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-1895136.930991905</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-1901980.608091905</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-1895810.562691905</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-1904917.069191905</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-1894515.634091905</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-1879946.196491905</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-1898905.219891905</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-1898905.219891905</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-1891175.197191905</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-2137209.826091905</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-2113185.219603625</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-2124176.057303625</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-2113381.599703625</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-2093433.102503625</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-2100897.220303625</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-2119222.101203626</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-2157008.213003626</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-2148560.106603626</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-2184096.049703625</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-2146803.733803626</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-2136996.789603626</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-2218845.931003626</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-2197843.435003626</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-2203850.926603626</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-2194595.504203625</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-2201574.656203625</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-2209036.704103625</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-2209036.704103625</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-2297013.767503625</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-2297013.767503625</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-2348334.716403625</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-2317775.868703626</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-2342329.013303625</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-2268657.746403625</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-2268421.699603625</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-2213417.867303625</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-2234187.565303625</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-2213497.653603625</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-2204543.925703625</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-2215353.840203625</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-2204972.115703625</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-2217762.089603625</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-2208037.934503625</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2198337.286903625</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-2185958.381103626</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-2158078.588303626</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-2174285.028503626</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-2206387.663303626</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-2219461.275103626</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-2203234.494803626</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-2267984.823103626</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-2302503.121903626</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-2291730.919203626</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-2272063.632103626</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-2315708.788003626</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-2737872.327803626</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-2626626.285907218</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-2677535.398007218</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-2616752.657607218</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-2553717.984107218</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-2686344.335407218</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-2862417.246207218</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-2808991.847907218</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-2845374.455107218</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-2816763.197107218</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-2836990.859007218</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-2881585.349107218</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-2825437.712407218</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-2790684.86351198</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-2820883.66781198</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-2780822.41771198</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-2819280.90091198</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-2776849.83141198</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-2674362.47821198</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-2988406.56461198</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-2977708.85351198</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-2991163.58611198</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-2965114.71801198</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-2988545.81291198</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-2971540.83181198</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-2960563.36511198</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-3015166.89441198</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-2950901.90901198</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-2974813.21631198</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-3031237.89821198</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-2975340.46791198</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-2975340.46791198</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-3026940.01851198</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-3142802.98081198</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-3070621.60871198</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-3082831.22551198</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-3071964.90661198</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-3172637.90231198</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-3121467.61261198</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-3047489.92151198</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-3088177.07491198</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-3043094.032311981</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-3095873.222611981</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-3064140.726911981</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-3110755.022211981</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-3097344.803411981</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-3089735.828011981</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-3096226.257011981</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-3083861.728311981</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-3059914.786611981</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-3106887.220511981</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-3106887.220511981</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-3116631.370411981</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-3089287.171311981</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-3120914.584211981</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-3180749.122011981</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-3180749.122011981</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-3171838.011711981</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-3144853.761111981</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-3144853.761111981</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-3130084.963911981</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-3130084.963911981</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-3169982.909111981</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-3169982.909111981</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-3223545.496711981</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-3202594.396611982</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-3163866.203011982</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-3172087.300511982</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-3172087.300511982</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-3199948.687911982</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-3180828.178511982</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-3180828.178511982</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-3197997.780611982</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-3182901.651611981</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-3206568.767711982</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-3200673.373211982</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-3208654.819911982</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-3202091.939111982</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-3190224.952711982</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-3199001.303711982</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-3199001.303711982</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-3266738.869911982</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-3304053.360711982</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-3221135.832411982</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-3270100.955911982</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-3270100.955911982</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-3229847.803611982</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-3229847.803611982</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-4360161.093011982</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-4438616.400611982</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-4438239.465011981</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-6429945.947511983</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-5864457.495711983</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-5960179.668811983</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-5960179.668811983</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-5960179.668811983</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-6283134.541611983</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-6613710.542011984</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-6548149.341111984</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-6499448.990511985</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-6584510.232011985</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-6584510.232011985</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-6584510.232011985</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-6486335.826911985</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-6429600.019111984</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-6316335.512511984</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-6286087.110911983</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-6155830.900511983</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-6160971.011811983</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-6153599.482711983</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-6176905.650711983</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-6176905.650711983</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-6119795.183811982</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-6408880.855511982</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-6201982.694311982</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-6228981.386111982</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-6201446.636311982</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-6217961.846411982</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-6395778.941911981</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-9500227.629065078</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-10947959.48875544</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-10986869.32175544</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-10986869.32175544</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-10985994.32175544</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-10985199.12225544</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-10985287.72235544</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-10998865.24125544</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-10999778.63925544</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-11090041.79265544</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-11090041.79265544</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-12219013.43595544</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31405,11 +31405,17 @@
         <v>-12507052.03675544</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>9.720000000000001</v>
+      </c>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31438,11 +31444,17 @@
         <v>-12610432.79995544</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>9.712</v>
+      </c>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31471,11 +31483,17 @@
         <v>-12610432.79995544</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>9.710000000000001</v>
+      </c>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31504,11 +31522,17 @@
         <v>-12606765.74315544</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>9.710000000000001</v>
+      </c>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31537,11 +31561,17 @@
         <v>-12561399.76737223</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>9.73</v>
+      </c>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31570,11 +31600,17 @@
         <v>-12606765.74307223</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>9.9</v>
+      </c>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31603,11 +31639,17 @@
         <v>-12606615.74307223</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>9.75</v>
+      </c>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31636,11 +31678,17 @@
         <v>-12606615.74307223</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31669,11 +31717,17 @@
         <v>-12664000.90457223</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31702,15 +31756,17 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I949" t="n">
         <v>9.76</v>
       </c>
-      <c r="J949" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31739,17 +31795,15 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I950" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="J950" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L950" t="n">
@@ -31780,17 +31834,15 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I951" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="J951" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L951" t="n">
@@ -31821,17 +31873,15 @@
         <v>-12715953.65577223</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I952" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="J952" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L952" t="n">
@@ -31862,14 +31912,12 @@
         <v>-12692076.49877223</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I953" t="n">
         <v>9.760999999999999</v>
       </c>
-      <c r="J953" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31903,14 +31951,12 @@
         <v>-12689329.24027223</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I954" t="n">
         <v>9.762</v>
       </c>
-      <c r="J954" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31944,14 +31990,12 @@
         <v>-12746235.67727223</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I955" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J955" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31985,14 +32029,12 @@
         <v>-12746235.67727223</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I956" t="n">
         <v>9.765000000000001</v>
       </c>
-      <c r="J956" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32026,14 +32068,12 @@
         <v>-12746184.67727223</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I957" t="n">
         <v>9.765000000000001</v>
       </c>
-      <c r="J957" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32067,14 +32107,12 @@
         <v>-12746264.67727223</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I958" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J958" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32108,14 +32146,12 @@
         <v>-12546759.58347223</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I959" t="n">
         <v>9.765000000000001</v>
       </c>
-      <c r="J959" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32149,14 +32185,12 @@
         <v>-12548054.06537223</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I960" t="n">
         <v>9.9</v>
       </c>
-      <c r="J960" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32190,14 +32224,12 @@
         <v>-12547761.1360793</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I961" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J961" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32231,12 +32263,12 @@
         <v>-12549778.6767793</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>9.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32270,12 +32302,12 @@
         <v>-12549778.6767793</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>9.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32309,12 +32341,12 @@
         <v>-12574605.3889793</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>9.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32348,14 +32380,12 @@
         <v>-12461978.7760793</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I965" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="J965" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32389,14 +32419,12 @@
         <v>-12457348.7760793</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I966" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J966" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32430,14 +32458,12 @@
         <v>-10981182.45175544</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I967" t="n">
         <v>9.897</v>
       </c>
-      <c r="J967" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32474,9 +32500,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32513,9 +32537,7 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32552,9 +32574,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32591,9 +32611,7 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32630,9 +32648,7 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32669,9 +32685,7 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32708,9 +32722,7 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32747,9 +32759,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32786,9 +32796,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32825,9 +32833,7 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32864,9 +32870,7 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32903,9 +32907,7 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32942,9 +32944,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32981,9 +32981,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33020,9 +33018,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33059,9 +33055,7 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33098,9 +33092,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33137,9 +33129,7 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33176,9 +33166,7 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>9.76</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33190,6 +33178,6 @@
       <c r="M986" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest SOC.xlsx
+++ b/BackTest/2020-01-24 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1898040.759049896</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2086484.306049896</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2070703.358249896</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2093574.527149896</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2080909.623355441</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1982000.958755441</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2001004.186055441</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1979691.071655441</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1997866.501655441</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1990147.302355441</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1979649.629355441</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1979649.629355441</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1988006.758955441</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1988006.758955441</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1938653.010855441</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1938653.010855441</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1974401.942455441</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1966422.486655441</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1973589.944455441</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1958907.027055441</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1949621.072355441</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1956920.900755441</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1939234.677255441</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1939234.677255441</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1930135.199355441</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1944988.971955441</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1963791.968155441</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1955436.310155441</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1962564.348755441</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1955832.970355441</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1955832.970355441</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1975177.124155441</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1975177.124155441</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1704900.384755441</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1630129.619555441</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1664356.843055441</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1620800.262655441</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1773637.070955441</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1773637.070955441</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1773637.070955441</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1797880.449255441</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1824129.284855441</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1812166.518855441</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1831320.630755441</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1804757.67125544</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1843521.622555441</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1843521.622555441</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1869553.57515544</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1825253.208149896</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1855206.590749895</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1855206.590749895</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1847965.358549895</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1847965.358549895</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1961968.635649896</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1971637.098849896</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1964504.409349896</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1964504.409349896</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1921825.492849895</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1942335.791349896</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2031929.238849896</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2073617.300649896</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2060658.127949896</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2071810.857649896</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2105352.010649896</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2138977.423249896</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2117514.851349896</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2129082.133749896</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2115043.210249896</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2115043.210249896</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2121808.557949896</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2114908.333249895</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-2122439.289149895</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2115518.962749895</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2146815.416649895</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2146815.416649895</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1892489.207449895</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1846139.651849895</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1846139.651849895</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1825273.647049895</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1857035.616149895</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1842795.980549895</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1848334.526749895</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1848334.526749895</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1868922.810749895</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1868922.810749895</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1860205.693249895</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1852509.778549895</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1859234.260349895</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1879740.134249895</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1755864.456249895</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1763757.305449895</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1757297.051549895</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1757297.051549895</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1860128.734749896</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1867230.668449895</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1859729.314749895</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1868335.233449895</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1875682.082249895</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1857718.157449896</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1826936.938749895</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1851632.018449895</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1844943.656849895</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1837761.718749895</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1844036.346849896</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1836792.947549896</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1845499.156249896</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1875186.983291905</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1868665.482391905</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1876192.228991905</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1885743.428491905</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1877820.161191905</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1885381.344591905</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1885381.344591905</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1878991.477891905</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1870050.240591906</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1877521.559291905</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1788756.200891905</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1782939.810491906</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1776207.385991906</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1782221.840191906</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1789267.675491906</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1807174.907291905</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1796954.568891905</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1803523.998391906</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1795349.759191906</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1802355.150391906</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1794754.059191906</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1802096.500891906</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1795131.805591906</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1788659.641891906</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1796854.025591906</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1790212.099491906</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1782695.437591906</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1776473.925991906</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1783073.292191906</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1769994.079591906</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1750520.556991906</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1695704.692791906</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1695704.692791906</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1695704.692791906</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1695704.692791906</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1695704.692791906</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1703836.584391906</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1710290.173891906</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1702797.315391906</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1694981.586891906</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1701972.927291906</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1695690.881291906</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1695690.881291906</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1695690.881291906</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1793553.240491906</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1758245.924291906</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1684064.469291906</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1719695.752991906</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1712869.705791906</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1712869.705791906</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1720071.972591906</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1712977.654091906</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1720167.835591906</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1713546.352691906</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1707198.736991906</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1723670.185791906</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1732946.110391906</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1725774.974091906</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1733736.378391906</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1727232.240691906</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1727232.240691906</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1727232.240691906</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1736352.272091906</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1730290.283891906</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1737482.284991906</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1730724.728691906</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1738169.345991906</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1731705.032191906</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1738736.040991906</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1732371.880591906</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1739931.640191906</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1505204.823191906</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1505204.823191906</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1505204.823191906</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1505204.823191906</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1649818.221291906</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1663181.477691906</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1656149.286891906</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1656149.286891906</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1663199.066691906</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1655330.899691906</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1661897.999991906</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1654050.253691906</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1660742.415491906</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1679501.572191906</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1664884.484491906</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1658222.972291906</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1664980.391191906</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1656853.595591906</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1662714.046091906</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1669805.133191905</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1655825.533591905</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1669366.819691905</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1655676.764691905</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1635035.096591905</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1655166.541591906</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1655166.541591906</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1645598.694391905</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1645598.694391905</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1637592.267491905</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1645320.186491905</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1633319.814691905</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1621074.735891905</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1628095.136391905</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1615996.538991905</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1608777.580491905</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1616877.587791905</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1622487.790791905</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1602619.249091905</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1668079.035391905</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1660834.376391905</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1667457.502691905</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1660434.425991905</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1666400.002891905</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1657841.039691905</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1672016.958691905</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1697510.325791905</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1727448.846891905</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1666847.532491905</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1658152.956291905</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1686197.282391905</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1692924.016391905</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1684829.727091904</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1690995.307791905</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1678897.490191905</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1659496.257291905</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1677922.211691905</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1663639.808691905</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1650138.167691905</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1656275.868991905</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1649075.752791905</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1643363.326591905</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1652383.706791905</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1635030.698991905</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1658003.379091904</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1677909.765591905</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1655697.361891905</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1637336.208791905</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1659897.220091905</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1641284.166891905</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1652792.792191905</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1645413.362091905</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1654378.138091905</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1663059.410091905</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1655941.027491905</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1675935.956191905</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1654978.084091905</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1673469.569691905</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1661105.779991905</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1654008.964091905</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1661892.883191905</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1633547.766891905</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1681575.023191905</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1714481.601191905</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1747127.862791905</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1719350.755791905</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1726229.221891905</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1726229.221891905</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1702155.957891905</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1691099.407391905</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1669631.950991905</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1676115.817991905</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1682452.113291905</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1675938.224391905</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1668368.024091905</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1675096.270691905</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1664825.648991905</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1676994.833491905</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1645094.779491905</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1660214.867291905</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1660214.867291905</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1654426.361091905</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1661394.125491905</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1668846.938091905</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1683333.630191905</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1692056.917991905</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1683161.318891905</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1669670.403291905</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1681409.909491905</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1674775.059191905</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1683298.196391905</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1666337.981891905</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1657430.693591905</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1657430.693591905</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1663851.869191905</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1670202.221591905</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1681158.420691905</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1672456.502091905</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1664284.722491905</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1657569.275991905</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1666230.230691905</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1673223.438391905</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1661416.317891905</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1674398.571491905</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1666546.336591905</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1666546.336591905</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1682170.773391905</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1682170.773391905</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1671316.712691905</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1684335.365191905</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1715283.841091905</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1723746.521191905</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1712211.674291905</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1712211.674291905</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1699083.154691905</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1705510.041191905</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1697520.848591905</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1704334.682691905</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-1704334.682691905</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1698251.886791905</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1698251.886791905</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1689081.492791905</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1695840.467491905</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1704802.209791905</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1692850.364691905</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1692850.364691905</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1700421.555591905</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1711651.838791905</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1682784.467291905</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-1763890.005791905</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1780155.484591905</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1788986.463491905</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-1810679.257791905</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1888154.186991905</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1914762.207591905</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1897589.940091905</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1887809.683191905</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1897547.078191905</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1889791.626291905</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1880769.699191905</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-1889592.993691905</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-1901801.020091905</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-1895136.930991905</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-1901980.608091905</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-1895810.562691905</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-1904917.069191905</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-1894515.634091905</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-1879946.196491905</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-1898905.219891905</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-1898905.219891905</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-1891175.197191905</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-2137209.826091905</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-2113185.219603625</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-2124176.057303625</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-2113381.599703625</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-2093433.102503625</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-2100897.220303625</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-2119222.101203626</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-2157008.213003626</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-2148560.106603626</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-2184096.049703625</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-2146803.733803626</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-2136996.789603626</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-2218845.931003626</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-2197843.435003626</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-2203850.926603626</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-2194595.504203625</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-2201574.656203625</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-2209036.704103625</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-2209036.704103625</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-2297013.767503625</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-2297013.767503625</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-2348334.716403625</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-2317775.868703626</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-2342329.013303625</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-2268657.746403625</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-2268421.699603625</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-2213417.867303625</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-2234187.565303625</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-2213497.653603625</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-2204543.925703625</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-2215353.840203625</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-2204972.115703625</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-2217762.089603625</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-2208037.934503625</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2198337.286903625</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-2185958.381103626</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-2158078.588303626</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-2174285.028503626</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-2206387.663303626</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-2219461.275103626</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-2203234.494803626</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-2267984.823103626</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-2302503.121903626</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-2291730.919203626</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-2272063.632103626</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-2315708.788003626</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-2737872.327803626</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-2626626.285907218</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-2677535.398007218</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-2616752.657607218</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-2553717.984107218</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-2686344.335407218</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-2862417.246207218</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-2808991.847907218</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-2845374.455107218</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-2816763.197107218</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-2836990.859007218</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-2881585.349107218</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-2825437.712407218</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-2790684.86351198</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-2820883.66781198</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-2780822.41771198</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-2819280.90091198</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-2776849.83141198</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-2674362.47821198</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-2988406.56461198</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-2977708.85351198</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-2991163.58611198</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-2965114.71801198</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-2988545.81291198</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-2971540.83181198</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-2960563.36511198</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-3015166.89441198</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-2950901.90901198</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-2974813.21631198</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-3031237.89821198</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-2975340.46791198</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-2975340.46791198</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-3026940.01851198</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-3142802.98081198</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-3070621.60871198</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-3082831.22551198</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-3071964.90661198</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-3172637.90231198</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-3121467.61261198</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-3047489.92151198</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-3088177.07491198</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-3043094.032311981</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-3095873.222611981</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-3064140.726911981</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-3110755.022211981</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-3097344.803411981</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-3089735.828011981</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-3096226.257011981</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-3083861.728311981</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-3059914.786611981</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-3106887.220511981</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-3106887.220511981</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-3116631.370411981</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-3089287.171311981</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-3120914.584211981</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-3180749.122011981</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-3180749.122011981</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-3171838.011711981</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-3144853.761111981</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-3144853.761111981</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-3130084.963911981</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-3130084.963911981</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-3169982.909111981</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-3169982.909111981</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-3223545.496711981</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-3202594.396611982</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-3163866.203011982</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-3172087.300511982</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-3172087.300511982</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-3199948.687911982</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-3180828.178511982</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-3180828.178511982</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-3197997.780611982</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-3182901.651611981</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-3206568.767711982</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-3200673.373211982</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-3208654.819911982</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-3202091.939111982</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-3190224.952711982</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-3199001.303711982</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-3199001.303711982</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-3266738.869911982</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-3304053.360711982</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-3221135.832411982</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-3270100.955911982</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-3270100.955911982</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-3229847.803611982</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-3229847.803611982</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-4360161.093011982</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-4438616.400611982</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-4438239.465011981</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>-9525363.857065078</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-9365753.761555441</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-9353630.623355441</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-9354016.224255441</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>-9420032.784455441</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>-9425165.53935544</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31372,10 +31372,14 @@
         <v>-12405733.35865544</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>9.712</v>
+      </c>
+      <c r="J939" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
@@ -31410,7 +31414,9 @@
       <c r="I940" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="J940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K940" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -31449,7 +31455,9 @@
       <c r="I941" t="n">
         <v>9.712</v>
       </c>
-      <c r="J941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31488,7 +31496,9 @@
       <c r="I942" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="J942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31527,7 +31537,9 @@
       <c r="I943" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="J943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31566,7 +31578,9 @@
       <c r="I944" t="n">
         <v>9.73</v>
       </c>
-      <c r="J944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31600,12 +31614,12 @@
         <v>-12606765.74307223</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
-      </c>
-      <c r="I945" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="J945" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31639,12 +31653,12 @@
         <v>-12606615.74307223</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
-      </c>
-      <c r="I946" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="J946" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31678,12 +31692,12 @@
         <v>-12606615.74307223</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="J947" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31717,12 +31731,12 @@
         <v>-12664000.90457223</v>
       </c>
       <c r="H948" t="n">
-        <v>1</v>
-      </c>
-      <c r="I948" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="J948" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31756,12 +31770,12 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H949" t="n">
-        <v>1</v>
-      </c>
-      <c r="I949" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="J949" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31795,12 +31809,12 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H950" t="n">
-        <v>1</v>
-      </c>
-      <c r="I950" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="J950" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31834,12 +31848,12 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
-      </c>
-      <c r="I951" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="J951" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31873,12 +31887,12 @@
         <v>-12715953.65577223</v>
       </c>
       <c r="H952" t="n">
-        <v>1</v>
-      </c>
-      <c r="I952" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="J952" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31912,12 +31926,12 @@
         <v>-12692076.49877223</v>
       </c>
       <c r="H953" t="n">
-        <v>1</v>
-      </c>
-      <c r="I953" t="n">
-        <v>9.760999999999999</v>
-      </c>
-      <c r="J953" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31956,7 +31970,9 @@
       <c r="I954" t="n">
         <v>9.762</v>
       </c>
-      <c r="J954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31995,7 +32011,9 @@
       <c r="I955" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32029,12 +32047,12 @@
         <v>-12746235.67727223</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
-      </c>
-      <c r="I956" t="n">
-        <v>9.765000000000001</v>
-      </c>
-      <c r="J956" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32073,7 +32091,9 @@
       <c r="I957" t="n">
         <v>9.765000000000001</v>
       </c>
-      <c r="J957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32107,12 +32127,12 @@
         <v>-12746264.67727223</v>
       </c>
       <c r="H958" t="n">
-        <v>1</v>
-      </c>
-      <c r="I958" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J958" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32151,7 +32171,9 @@
       <c r="I959" t="n">
         <v>9.765000000000001</v>
       </c>
-      <c r="J959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32185,12 +32207,12 @@
         <v>-12548054.06537223</v>
       </c>
       <c r="H960" t="n">
-        <v>1</v>
-      </c>
-      <c r="I960" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="J960" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32224,12 +32246,12 @@
         <v>-12547761.1360793</v>
       </c>
       <c r="H961" t="n">
-        <v>1</v>
-      </c>
-      <c r="I961" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J961" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32263,12 +32285,12 @@
         <v>-12549778.6767793</v>
       </c>
       <c r="H962" t="n">
-        <v>1</v>
-      </c>
-      <c r="I962" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="J962" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32307,7 +32329,9 @@
       <c r="I963" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32346,7 +32370,9 @@
       <c r="I964" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32385,7 +32411,9 @@
       <c r="I965" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="J965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32424,7 +32452,9 @@
       <c r="I966" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32463,7 +32493,9 @@
       <c r="I967" t="n">
         <v>9.897</v>
       </c>
-      <c r="J967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32500,7 +32532,9 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32537,7 +32571,9 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32574,7 +32610,9 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32611,7 +32649,9 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32648,7 +32688,9 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32685,7 +32727,9 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32722,7 +32766,9 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32759,7 +32805,9 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32796,7 +32844,9 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32833,7 +32883,9 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32870,7 +32922,9 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32907,7 +32961,9 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32944,7 +33000,9 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32981,7 +33039,9 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33018,7 +33078,9 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33055,7 +33117,9 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33092,7 +33156,9 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33129,7 +33195,9 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33166,7 +33234,9 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>9.712</v>
+      </c>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33178,6 +33248,6 @@
       <c r="M986" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest SOC.xlsx
+++ b/BackTest/2020-01-24 BackTest SOC.xlsx
@@ -2299,7 +2299,7 @@
         <v>-1961968.635649896</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1971637.098849896</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1921825.492849895</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1942335.791349896</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2031929.238849896</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2073617.300649896</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1842795.980549895</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1848334.526749895</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1848334.526749895</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1868922.810749895</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1859234.260349895</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1879740.134249895</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1755864.456249895</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1763757.305449895</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1757297.051549895</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1505204.823191906</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1663181.477691906</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1664980.391191906</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1655676.764691905</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1635035.096591905</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1655166.541591906</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1655166.541591906</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1645598.694391905</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1645598.694391905</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1637592.267491905</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1645320.186491905</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1633319.814691905</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1628095.136391905</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1615996.538991905</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1608777.580491905</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1616877.587791905</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1622487.790791905</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1602619.249091905</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1668079.035391905</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1660834.376391905</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1667457.502691905</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1660434.425991905</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1666400.002891905</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1657841.039691905</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1672016.958691905</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1697510.325791905</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1727448.846891905</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1666847.532491905</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1658152.956291905</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1686197.282391905</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1692924.016391905</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1684829.727091904</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1690995.307791905</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1678897.490191905</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1659496.257291905</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1677922.211691905</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1663639.808691905</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1650138.167691905</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1656275.868991905</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1649075.752791905</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1643363.326591905</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1652383.706791905</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1635030.698991905</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1658003.379091904</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1677909.765591905</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1655697.361891905</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1637336.208791905</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1659897.220091905</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1641284.166891905</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1652792.792191905</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1645413.362091905</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1654378.138091905</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1663059.410091905</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1655941.027491905</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1675935.956191905</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1654978.084091905</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1673469.569691905</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1661105.779991905</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1654008.964091905</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1661892.883191905</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1633547.766891905</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1681575.023191905</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1714481.601191905</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1707366.562891905</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1747127.862791905</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1719350.755791905</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1726229.221891905</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1726229.221891905</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1702155.957891905</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1691099.407391905</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1662606.794991905</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1669631.950991905</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1676115.817991905</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1682452.113291905</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1675938.224391905</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1668368.024091905</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1675096.270691905</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1664825.648991905</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1676994.833491905</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1664498.673991905</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1645094.779491905</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1667120.885591905</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1660214.867291905</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1660214.867291905</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1654426.361091905</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1661394.125491905</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1668846.938091905</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1683333.630191905</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1692056.917991905</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1683161.318891905</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1669670.403291905</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1681409.909491905</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1674775.059191905</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1683298.196391905</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1666337.981891905</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1657430.693591905</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1657430.693591905</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1663851.869191905</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1670202.221591905</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1681158.420691905</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1672456.502091905</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1664284.722491905</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1657569.275991905</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1666230.230691905</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1673223.438391905</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1661416.317891905</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1674398.571491905</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1666546.336591905</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1666546.336591905</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1682170.773391905</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1682170.773391905</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1699740.513491905</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1671316.712691905</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1684335.365191905</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1715283.841091905</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1723746.521191905</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1712211.674291905</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1712211.674291905</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1699083.154691905</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1705510.041191905</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1697520.848591905</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1704334.682691905</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-1704334.682691905</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1698251.886791905</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1698251.886791905</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1689081.492791905</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1695840.467491905</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1704802.209791905</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1692850.364691905</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1692850.364691905</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1700421.555591905</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1711651.838791905</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1682784.467291905</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-1656498.863691905</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-1763890.005791905</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1780155.484591905</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1788986.463491905</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-1810679.257791905</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1888154.186991905</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1914762.207591905</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1897589.940091905</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1887809.683191905</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1897547.078191905</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1889791.626291905</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1880769.699191905</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-1889592.993691905</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-1901801.020091905</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-1895136.930991905</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-1901980.608091905</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-1895810.562691905</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-1904917.069191905</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-1894515.634091905</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-1879946.196491905</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-1898905.219891905</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-1898905.219891905</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-1891175.197191905</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-2137209.826091905</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-2113185.219603625</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-2124176.057303625</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-2113381.599703625</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-2100897.220303625</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-2119222.101203626</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-2157008.213003626</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-2148560.106603626</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-2184096.049703625</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-2146803.733803626</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-2134548.975303626</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-2218845.931003626</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-2197843.435003626</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-2203850.926603626</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-2194595.504203625</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-2201574.656203625</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-2209036.704103625</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-2209036.704103625</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-2297013.767503625</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-2297013.767503625</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-2348334.716403625</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-2317775.868703626</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-2342329.013303625</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-2268657.746403625</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-2268421.699603625</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-2213417.867303625</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-2234187.565303625</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-2213497.653603625</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-2204543.925703625</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-2215353.840203625</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-2204972.115703625</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-2217762.089603625</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-2208037.934503625</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2198337.286903625</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-2185958.381103626</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-2158078.588303626</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-2174285.028503626</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-2206387.663303626</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-2219461.275103626</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-2203234.494803626</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-2267984.823103626</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-2302503.121903626</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-2291730.919203626</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-2272063.632103626</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-2315708.788003626</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-2737872.327803626</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-2626626.285907218</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-2616752.657607218</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-2553717.984107218</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-2686344.335407218</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-2862417.246207218</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-2881585.349107218</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-2820883.66781198</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-2977708.85351198</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-3083861.728311981</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-3106887.220511981</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-3106887.220511981</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-3180749.122011981</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-3171838.011711981</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-3144853.761111981</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-3144853.761111981</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-3130084.963911981</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-3130084.963911981</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-3169982.909111981</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-3169982.909111981</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-3223545.496711981</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-3202594.396611982</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-3163866.203011982</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-3172087.300511982</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-3172087.300511982</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-3199948.687911982</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-3180828.178511982</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-3180828.178511982</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-3197997.780611982</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-3182901.651611981</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-3206568.767711982</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-3200673.373211982</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-3208654.819911982</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-3202091.939111982</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-3190224.952711982</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-3199001.303711982</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-3199001.303711982</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-3192354.519511982</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-3266738.869911982</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-3304053.360711982</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-3221135.832411982</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-3270100.955911982</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-3270100.955911982</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-3229847.803611982</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-3284110.551511982</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-8311915.015265077</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>-9511849.680765077</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-9500227.629065078</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-9365753.761555441</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-9353630.623355441</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-9354016.224255441</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-9353834.406155441</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>-9387738.51515544</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-9387683.51515544</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>-9420032.784455441</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>-9425165.53935544</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31372,14 +31372,10 @@
         <v>-12405733.35865544</v>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
-      </c>
-      <c r="I939" t="n">
-        <v>9.712</v>
-      </c>
-      <c r="J939" t="n">
-        <v>9.712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I939" t="inlineStr"/>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
@@ -31409,222 +31405,182 @@
         <v>-12507052.03675544</v>
       </c>
       <c r="H940" t="n">
-        <v>1</v>
-      </c>
-      <c r="I940" t="n">
+        <v>0</v>
+      </c>
+      <c r="I940" t="inlineStr"/>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
+      <c r="L940" t="n">
+        <v>1</v>
+      </c>
+      <c r="M940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" t="n">
+        <v>9.712</v>
+      </c>
+      <c r="C941" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="D941" t="n">
+        <v>9.712</v>
+      </c>
+      <c r="E941" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F941" t="n">
+        <v>103380.7632</v>
+      </c>
+      <c r="G941" t="n">
+        <v>-12610432.79995544</v>
+      </c>
+      <c r="H941" t="n">
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
+      <c r="L941" t="n">
+        <v>1</v>
+      </c>
+      <c r="M941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="J940" t="n">
-        <v>9.712</v>
-      </c>
-      <c r="K940" t="inlineStr">
+      <c r="C942" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="D942" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="E942" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F942" t="n">
+        <v>40198.5908</v>
+      </c>
+      <c r="G942" t="n">
+        <v>-12610432.79995544</v>
+      </c>
+      <c r="H942" t="n">
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
+      <c r="L942" t="n">
+        <v>1</v>
+      </c>
+      <c r="M942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="C943" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D943" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="E943" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="F943" t="n">
+        <v>3667.0568</v>
+      </c>
+      <c r="G943" t="n">
+        <v>-12606765.74315544</v>
+      </c>
+      <c r="H943" t="n">
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr"/>
+      <c r="L943" t="n">
+        <v>1</v>
+      </c>
+      <c r="M943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C944" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D944" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E944" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F944" t="n">
+        <v>45365.97578320202</v>
+      </c>
+      <c r="G944" t="n">
+        <v>-12561399.76737223</v>
+      </c>
+      <c r="H944" t="n">
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr"/>
+      <c r="L944" t="n">
+        <v>1</v>
+      </c>
+      <c r="M944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B945" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C945" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="D945" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="E945" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F945" t="n">
+        <v>45365.9757</v>
+      </c>
+      <c r="G945" t="n">
+        <v>-12606765.74307223</v>
+      </c>
+      <c r="H945" t="n">
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L940" t="n">
-        <v>1</v>
-      </c>
-      <c r="M940" t="inlineStr"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="1" t="n">
-        <v>939</v>
-      </c>
-      <c r="B941" t="n">
-        <v>9.712</v>
-      </c>
-      <c r="C941" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="D941" t="n">
-        <v>9.712</v>
-      </c>
-      <c r="E941" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="F941" t="n">
-        <v>103380.7632</v>
-      </c>
-      <c r="G941" t="n">
-        <v>-12610432.79995544</v>
-      </c>
-      <c r="H941" t="n">
-        <v>1</v>
-      </c>
-      <c r="I941" t="n">
-        <v>9.712</v>
-      </c>
-      <c r="J941" t="n">
-        <v>9.712</v>
-      </c>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L941" t="n">
-        <v>1</v>
-      </c>
-      <c r="M941" t="inlineStr"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="1" t="n">
-        <v>940</v>
-      </c>
-      <c r="B942" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="C942" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="D942" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="E942" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="F942" t="n">
-        <v>40198.5908</v>
-      </c>
-      <c r="G942" t="n">
-        <v>-12610432.79995544</v>
-      </c>
-      <c r="H942" t="n">
-        <v>1</v>
-      </c>
-      <c r="I942" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="J942" t="n">
-        <v>9.712</v>
-      </c>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L942" t="n">
-        <v>1</v>
-      </c>
-      <c r="M942" t="inlineStr"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="1" t="n">
-        <v>941</v>
-      </c>
-      <c r="B943" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="C943" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="D943" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="E943" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="F943" t="n">
-        <v>3667.0568</v>
-      </c>
-      <c r="G943" t="n">
-        <v>-12606765.74315544</v>
-      </c>
-      <c r="H943" t="n">
-        <v>1</v>
-      </c>
-      <c r="I943" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="J943" t="n">
-        <v>9.712</v>
-      </c>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L943" t="n">
-        <v>1</v>
-      </c>
-      <c r="M943" t="inlineStr"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="1" t="n">
-        <v>942</v>
-      </c>
-      <c r="B944" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="C944" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="D944" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E944" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="F944" t="n">
-        <v>45365.97578320202</v>
-      </c>
-      <c r="G944" t="n">
-        <v>-12561399.76737223</v>
-      </c>
-      <c r="H944" t="n">
-        <v>1</v>
-      </c>
-      <c r="I944" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="J944" t="n">
-        <v>9.712</v>
-      </c>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L944" t="n">
-        <v>1</v>
-      </c>
-      <c r="M944" t="inlineStr"/>
-    </row>
-    <row r="945">
-      <c r="A945" s="1" t="n">
-        <v>943</v>
-      </c>
-      <c r="B945" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="C945" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="D945" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="E945" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F945" t="n">
-        <v>45365.9757</v>
-      </c>
-      <c r="G945" t="n">
-        <v>-12606765.74307223</v>
-      </c>
-      <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>9.712</v>
-      </c>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31653,12 +31609,12 @@
         <v>-12606615.74307223</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31695,9 +31651,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31731,12 +31685,12 @@
         <v>-12664000.90457223</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31770,12 +31724,12 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31809,12 +31763,12 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31848,12 +31802,12 @@
         <v>-12663949.90457223</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31887,12 +31841,12 @@
         <v>-12715953.65577223</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31926,12 +31880,12 @@
         <v>-12692076.49877223</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>9.760999999999999</v>
+      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31970,9 +31924,7 @@
       <c r="I954" t="n">
         <v>9.762</v>
       </c>
-      <c r="J954" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32011,9 +31963,7 @@
       <c r="I955" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J955" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32047,12 +31997,12 @@
         <v>-12746235.67727223</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>9.765000000000001</v>
+      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32091,9 +32041,7 @@
       <c r="I957" t="n">
         <v>9.765000000000001</v>
       </c>
-      <c r="J957" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32127,12 +32075,12 @@
         <v>-12746264.67727223</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32171,9 +32119,7 @@
       <c r="I959" t="n">
         <v>9.765000000000001</v>
       </c>
-      <c r="J959" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32207,12 +32153,12 @@
         <v>-12548054.06537223</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32246,12 +32192,12 @@
         <v>-12547761.1360793</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32285,12 +32231,12 @@
         <v>-12549778.6767793</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>9.712</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32329,9 +32275,7 @@
       <c r="I963" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J963" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32370,9 +32314,7 @@
       <c r="I964" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J964" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32411,9 +32353,7 @@
       <c r="I965" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="J965" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32452,9 +32392,7 @@
       <c r="I966" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J966" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32493,9 +32431,7 @@
       <c r="I967" t="n">
         <v>9.897</v>
       </c>
-      <c r="J967" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32532,9 +32468,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32571,9 +32505,7 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32610,9 +32542,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32649,9 +32579,7 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32688,9 +32616,7 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32727,9 +32653,7 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32766,9 +32690,7 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32805,9 +32727,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32844,9 +32764,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32883,9 +32801,7 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32922,9 +32838,7 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32961,9 +32875,7 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33000,9 +32912,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33039,9 +32949,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33078,9 +32986,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33117,9 +33023,7 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33156,9 +33060,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33195,9 +33097,7 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33234,9 +33134,7 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>9.712</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
